--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2307832.696200712</v>
+        <v>2326207.385666834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9734124.342999997</v>
+        <v>9734124.342999995</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>202.0270838186948</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>120.6676984421422</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>73.41805918135782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>153.8100533453329</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>290.8783469293132</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>161.7233591037331</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,22 +947,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>123.6064608052456</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>88.25490562468522</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.7841211223181</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>181.1611956319094</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>105.3980171505015</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>38.14770907297669</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.272891771008</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274088</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>20.58581884348041</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>228.9317911316679</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>92.03515530101696</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>48.46728683286339</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>66.98836639313193</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>66.90445977359171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>267.6362231773908</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>166.0580064417726</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>220.2803460863078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>85.7229269679717</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,10 +3007,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>200.4177990254188</v>
       </c>
       <c r="W31" t="n">
-        <v>94.16481274941243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>124.8388016343878</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.33602639002971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>184.3436390370246</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.562624396424693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>70.9985384673481</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385007</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.90445977359175</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>203.5330926723487</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>47.2782052728767</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1525.597764264522</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1156.63524732411</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X2" t="n">
-        <v>1187.828354776384</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y2" t="n">
-        <v>1187.828354776384</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265796</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>285.8510101265796</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.934501327943</v>
+        <v>1748.280186455193</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1379.317669514782</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1021.051970908031</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>635.2637183097868</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.934501327943</v>
+        <v>2134.880026519315</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>188.745875571094</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>188.745875571094</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>188.745875571094</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>188.745875571094</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.745875571094</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.745875571094</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>188.745875571094</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>188.745875571094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
         <v>959.5129866402885</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,49 +4881,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084169</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084169</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>512.0323670265868</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084169</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,34 +5024,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1478.122514150346</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1254.337098939852</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="V13" t="n">
-        <v>843.9666117966292</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W13" t="n">
-        <v>843.9666117966292</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X13" t="n">
-        <v>615.9770608986119</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5267,61 +5267,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514064</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W16" t="n">
-        <v>898.5039869983195</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>805.539183663959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3959.29649689213</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>404.5984857229794</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>404.5984857229794</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1320.176150561012</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1320.176150561012</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1031.04751177457</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>776.3630235686835</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>486.9458535317228</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317228</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>806.1650729342614</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.7973538578533</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C22" t="n">
-        <v>164.7973538578533</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>385.5899330013834</v>
+        <v>1228.576651186801</v>
       </c>
       <c r="X22" t="n">
-        <v>385.5899330013834</v>
+        <v>1228.576651186801</v>
       </c>
       <c r="Y22" t="n">
-        <v>164.7973538578533</v>
+        <v>1007.78407204327</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,19 +5978,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,19 +5999,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>367.4730644165944</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>614.2381923230585</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>921.55832560302</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,43 +6154,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471229</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.60808497467</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980067</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.08282758575</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557906</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119731</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035284</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247894</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247894</v>
+        <v>1131.26090043126</v>
       </c>
       <c r="V25" t="n">
-        <v>709.4512536189026</v>
+        <v>876.5764122253731</v>
       </c>
       <c r="W25" t="n">
-        <v>486.9458535317229</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X25" t="n">
-        <v>486.9458535317229</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6203,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,22 +6215,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515098</v>
@@ -6239,7 +6239,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>352.7420895073561</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C28" t="n">
-        <v>183.8059065794492</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D28" t="n">
-        <v>183.8059065794492</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E28" t="n">
-        <v>183.8059065794492</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F28" t="n">
-        <v>183.8059065794492</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>755.183133481126</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>755.183133481126</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>534.3905543375959</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,10 +6446,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,16 +6458,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1925.814757496976</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324571</v>
+        <v>4145.49829777956</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>3856.081127742599</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>3628.091576844582</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>392.2530740188876</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>223.3168910909806</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>223.3168910909806</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>620.2426249169049</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>620.2426249169049</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>392.2530740188876</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y34" t="n">
-        <v>392.2530740188876</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2292.946699347401</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.7290208898078</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C37" t="n">
-        <v>277.7928379619009</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D37" t="n">
-        <v>277.7928379619009</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8797443795078</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>129.8797443795078</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7120,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>964.1357418247858</v>
+        <v>1201.635471122733</v>
       </c>
       <c r="V37" t="n">
-        <v>964.1357418247858</v>
+        <v>946.9509829168464</v>
       </c>
       <c r="W37" t="n">
-        <v>674.7185717878251</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X37" t="n">
-        <v>446.7290208898078</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y37" t="n">
-        <v>446.7290208898078</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227918</v>
+        <v>1003.495149841397</v>
       </c>
       <c r="V40" t="n">
-        <v>620.2426249169049</v>
+        <v>1003.495149841397</v>
       </c>
       <c r="W40" t="n">
-        <v>330.8254548799443</v>
+        <v>1003.495149841397</v>
       </c>
       <c r="X40" t="n">
-        <v>102.8359039819269</v>
+        <v>1003.495149841397</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.8359039819269</v>
+        <v>1003.495149841397</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1925.814757496976</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>4344.270476994348</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>4344.270476994348</v>
       </c>
       <c r="V43" t="n">
-        <v>675.007103038344</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="W43" t="n">
-        <v>385.5899330013834</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="X43" t="n">
-        <v>385.5899330013834</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.7973538578533</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7643,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619127</v>
@@ -7664,34 +7664,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.607977814708</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>659.373105721172</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113633</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.9728543621815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>144.9728543621815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>326.6213191924212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>326.6213191924212</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>29.47535963978211</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711629</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>94.13752431970607</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>392.1113620226433</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>148.2747143566559</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>80.50021372615265</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>285.1031356539334</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.8856946302408</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>28.12263706263059</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.50021372615265</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504498</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>87.16935584025447</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>177.3349911401228</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>23.20585219216008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>133.6745000880202</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>97.96667581370579</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>130.9324435904713</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>81.71101324462064</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>18.88677515920017</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>120.1793459568048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>66.24265225028319</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>80.77064149540588</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>5.598006161884683</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>51.71984429840924</v>
       </c>
       <c r="W31" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>21.59516101218135</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>134.1575420733479</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>101.8937133615527</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>174.2693557855126</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>215.2388139312292</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.9275204083455</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25837,19 +25837,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>18.01446838604056</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>101.3372677453357</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
         <v>566992.136619678</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029926</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.3647902993</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254590.7726116177</v>
+        <v>-252062.4514481754</v>
       </c>
       <c r="C6" t="n">
-        <v>335377.1066029267</v>
+        <v>337905.4277663693</v>
       </c>
       <c r="D6" t="n">
-        <v>335377.1066029269</v>
+        <v>337905.4277663693</v>
       </c>
       <c r="E6" t="n">
-        <v>-81493.59059623408</v>
+        <v>-79458.77135823709</v>
       </c>
       <c r="F6" t="n">
-        <v>443666.445880662</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="G6" t="n">
-        <v>443666.4458806621</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="H6" t="n">
-        <v>443666.4458806622</v>
+        <v>445701.265118659</v>
       </c>
       <c r="I6" t="n">
-        <v>443666.4458806621</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="J6" t="n">
-        <v>267243.2266880692</v>
+        <v>269278.0459260661</v>
       </c>
       <c r="K6" t="n">
-        <v>443666.4458806622</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="L6" t="n">
-        <v>443666.4458806618</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="M6" t="n">
-        <v>308865.4306468247</v>
+        <v>310900.2498848218</v>
       </c>
       <c r="N6" t="n">
-        <v>443666.4458806622</v>
+        <v>445701.265118659</v>
       </c>
       <c r="O6" t="n">
-        <v>443666.4458806621</v>
+        <v>445701.2651186591</v>
       </c>
       <c r="P6" t="n">
-        <v>443666.4458806621</v>
+        <v>445701.265118659</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>204.8489619230166</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>249.0634022363268</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>73.01590346521135</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>71.22505211275134</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>74.39454484169437</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>245.1526866379784</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>43.6403602933822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>46.71071616765303</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128.9497205411624</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>70.06297187637986</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>43.21745586771084</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>248.1341651690011</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30469,16 +30469,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30511,19 +30511,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.221555270729305e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>180.0507982277213</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303311</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>376.5012265608142</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>702.5357390731095</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718785</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36200,10 +36200,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>397.5324193126801</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36212,16 +36212,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>231.0756523140919</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789763</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>618.2977090519462</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>395.9791095617654</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>235.2160519941552</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>481.9867828282178</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>168.5132465112268</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109065</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>420.3639292382673</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2326207.385666834</v>
+        <v>2401737.055331639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>202.0270838186948</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>292.9415311655805</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8100533453329</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>161.7233591037331</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>151.8761603061871</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>88.25490562468522</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>367.6097747287632</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.1611956319094</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>38.14770907297669</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.3423105940806</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385026</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>132.0804316800279</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>20.58581884348041</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>166.1906424480606</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>48.46728683286339</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.53884904317064</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>267.6362231773908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.0156334937747</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>166.0580064417726</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>143.3158222056514</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3007,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>200.4177990254188</v>
+        <v>66.90445977359168</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>119.8338438389643</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>33.1589109587162</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>184.3436390370246</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>163.8852804552151</v>
       </c>
       <c r="U40" t="n">
-        <v>70.9985384673481</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>93.48193440482341</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>203.5330926723487</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>162.2156208849876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.597764264522</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.63524732411</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.63524732411</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1156.63524732411</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>2401.248554487333</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.197604328644</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>572.7652939586234</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>572.7652939586234</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>572.7652939586234</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>572.7652939586234</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>572.7652939586234</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1748.280186455193</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1379.317669514782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1021.051970908031</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>635.2637183097868</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2488.710138613173</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2488.710138613173</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2488.710138613173</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2488.710138613173</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4647,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2072.529454785695</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2459.129294849817</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2459.129294849817</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2459.129294849817</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2459.129294849817</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="Y8" t="n">
-        <v>2459.129294849817</v>
+        <v>1623.178216428725</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>512.0323670265868</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788207</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5020,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5066,7 +5068,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141867</v>
@@ -5136,10 +5138,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1478.122514150346</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1254.337098939852</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>965.2084601534104</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>965.2084601534104</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W13" t="n">
-        <v>675.7912901164498</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="X13" t="n">
-        <v>447.8017392184324</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>844.0280401273991</v>
       </c>
     </row>
     <row r="14">
@@ -5288,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5373,7 +5375,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1151.239967633105</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>862.1113288466635</v>
+        <v>1107.261519541286</v>
       </c>
       <c r="V16" t="n">
-        <v>607.4268406407766</v>
+        <v>852.5770313353994</v>
       </c>
       <c r="W16" t="n">
-        <v>318.0096706038159</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>573.5346686508863</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C19" t="n">
-        <v>404.5984857229794</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D19" t="n">
-        <v>404.5984857229794</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>496.665036439558</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>349.7750889416477</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>181.5997672614683</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>755.183133481126</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X19" t="n">
-        <v>755.183133481126</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y19" t="n">
-        <v>755.183133481126</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5832,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>826.1356072130308</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>657.1994242851239</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>507.0827848727882</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5944,16 +5946,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.576651186801</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>1228.576651186801</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>1007.78407204327</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6007,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6175,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1131.26090043126</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>876.5764122253731</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>587.1592421884125</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.9805482336712</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C28" t="n">
-        <v>241.9805482336712</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>241.9805482336712</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>241.9805482336712</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>241.9805482336712</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>241.9805482336712</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X28" t="n">
-        <v>241.9805482336712</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y28" t="n">
-        <v>241.9805482336712</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6445,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6549,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>4347.940519017357</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>4145.49829777956</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W31" t="n">
-        <v>3856.081127742599</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X31" t="n">
-        <v>3628.091576844582</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164472</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
         <v>247.6350999123426</v>
@@ -6889,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.107328986838</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>545.8631874464246</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
         <v>208.7516828383384</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1465.422421104654</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1465.422421104654</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1465.422421104654</v>
       </c>
       <c r="U37" t="n">
-        <v>1201.635471122733</v>
+        <v>1176.293782318212</v>
       </c>
       <c r="V37" t="n">
-        <v>946.9509829168464</v>
+        <v>1176.293782318212</v>
       </c>
       <c r="W37" t="n">
-        <v>657.5338128798858</v>
+        <v>1176.293782318212</v>
       </c>
       <c r="X37" t="n">
-        <v>429.5442619818684</v>
+        <v>948.3042314201945</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>727.5116522766643</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,19 +7162,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>821.846685011157</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C40" t="n">
-        <v>821.846685011157</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D40" t="n">
-        <v>671.7300455988212</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164281</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
         <v>208.7516828383384</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1222.300479791228</v>
       </c>
       <c r="U40" t="n">
-        <v>1003.495149841397</v>
+        <v>1222.300479791228</v>
       </c>
       <c r="V40" t="n">
-        <v>1003.495149841397</v>
+        <v>1222.300479791228</v>
       </c>
       <c r="W40" t="n">
-        <v>1003.495149841397</v>
+        <v>1222.300479791228</v>
       </c>
       <c r="X40" t="n">
-        <v>1003.495149841397</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.495149841397</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916675</v>
+        <v>3872.174920417421</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916675</v>
+        <v>3872.174920417421</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916675</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576118</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.85945949167</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T43" t="n">
-        <v>4344.270476994348</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U43" t="n">
-        <v>4344.270476994348</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V43" t="n">
-        <v>4089.585988788462</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W43" t="n">
-        <v>4089.585988788462</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="X43" t="n">
-        <v>3861.596437890445</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="Y43" t="n">
-        <v>3640.803858746915</v>
+        <v>3872.174920417421</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7688,10 +7690,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>3203.974306639288</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>3533.836934303321</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776736</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>234.4116509503162</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>16.53504133818444</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>177.3349911401228</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>120.0467099505167</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>97.96667581370579</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>65.37497932436548</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23943,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>18.88677515920017</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.5690198583201</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>120.1793459568048</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.598006161884683</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>43.82350024843876</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>51.71984429840924</v>
+        <v>185.2331835502363</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>159.5688032336831</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>98.75080951313051</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>76.80544144507661</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,13 +25368,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>101.8937133615527</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.66228060317417</v>
       </c>
       <c r="U40" t="n">
-        <v>215.2388139312292</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>55.13353861338895</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>18.01446838604056</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>56.36903246710719</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240302</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516046</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516048</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196779</v>
@@ -26335,22 +26337,22 @@
         <v>566992.1366196781</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196779</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26439,25 +26441,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481754</v>
+        <v>-252062.4514481755</v>
       </c>
       <c r="C6" t="n">
-        <v>337905.4277663693</v>
+        <v>337905.4277663692</v>
       </c>
       <c r="D6" t="n">
         <v>337905.4277663693</v>
       </c>
       <c r="E6" t="n">
-        <v>-79458.77135823709</v>
+        <v>-79458.77135823721</v>
       </c>
       <c r="F6" t="n">
-        <v>445701.2651186591</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="G6" t="n">
-        <v>445701.2651186591</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="H6" t="n">
         <v>445701.265118659</v>
       </c>
       <c r="I6" t="n">
-        <v>445701.2651186591</v>
+        <v>445701.2651186592</v>
       </c>
       <c r="J6" t="n">
-        <v>269278.0459260661</v>
+        <v>269278.0459260659</v>
       </c>
       <c r="K6" t="n">
+        <v>445701.265118659</v>
+      </c>
+      <c r="L6" t="n">
         <v>445701.2651186592</v>
-      </c>
-      <c r="L6" t="n">
-        <v>445701.2651186591</v>
       </c>
       <c r="M6" t="n">
         <v>310900.2498848218</v>
       </c>
       <c r="N6" t="n">
-        <v>445701.265118659</v>
+        <v>445701.2651186588</v>
       </c>
       <c r="O6" t="n">
-        <v>445701.2651186591</v>
+        <v>445701.2651186589</v>
       </c>
       <c r="P6" t="n">
         <v>445701.265118659</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>204.8489619230166</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>56.29943755183251</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>119.0630937653842</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>71.22505211275134</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>245.1526866379784</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>22.53955250278446</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>46.71071616765303</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882477</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.1240669347174</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>70.06297187637986</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>248.1341651690011</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>17.36734479495652</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35741,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091983</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38102,19 +38104,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914243</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2401737.055331639</v>
+        <v>2394720.040439928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>35.18155893056283</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>292.9415311655805</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>55.84003136202615</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>388.8699356888997</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>151.8761603061871</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>40.91287326691273</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.6097747287632</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.7414287458045</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.82466560786619</v>
       </c>
       <c r="X10" t="n">
-        <v>208.3423105940806</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385026</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>132.0804316800279</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>152.7339938093172</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>166.1906424480606</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>154.7047698244598</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.53884904317064</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.0156334937747</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>181.839959828386</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.14085215535403</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3009,16 +3009,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>66.90445977359168</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>177.6778654977374</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.8338438389643</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.1589109587162</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>163.8852804552151</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>93.48193440482341</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>162.2156208849876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>89.47991003305418</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>89.47991003305418</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2401.248554487333</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2027.782796226253</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9192350259435</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C4" t="n">
-        <v>217.9192350259435</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D4" t="n">
-        <v>217.9192350259435</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E4" t="n">
-        <v>70.00614144355038</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="F4" t="n">
-        <v>70.00614144355038</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259435</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>780.8811173708375</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>780.8811173708375</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>773.935616621634</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2488.710138613173</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2488.710138613173</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2488.710138613173</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2488.710138613173</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2135.941483343059</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>140.9256408662733</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>140.9256408662733</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>571.1061430638139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117851</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117851</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036444</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4843,13 +4843,13 @@
         <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404537</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.178216428725</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.6822058285749</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>438.955373861002</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>184.2708856551152</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>517.6822058285749</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.6822058285749</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.0280401273991</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>844.0280401273991</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273991</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X13" t="n">
-        <v>844.0280401273991</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="Y13" t="n">
-        <v>844.0280401273991</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1598612984388</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1107.261519541286</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>852.5770313353994</v>
+        <v>853.6001774198821</v>
       </c>
       <c r="W16" t="n">
-        <v>563.1598612984388</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="X16" t="n">
-        <v>563.1598612984388</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.1598612984388</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>349.7750889416477</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>181.5997672614683</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>496.665036439558</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,34 +5746,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.1830073829216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6387,19 +6387,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1432.107328986838</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1432.107328986838</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.107328986838</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1432.107328986838</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1432.107328986838</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1432.107328986838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1432.107328986838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6645,25 +6645,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>607.4268406407766</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>318.0096706038159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>544.6416868225887</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C34" t="n">
-        <v>544.6416868225887</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286132</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y34" t="n">
-        <v>544.6416868225887</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6964,10 +6964,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1465.422421104654</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1465.422421104654</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1465.422421104654</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.293782318212</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1176.293782318212</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1176.293782318212</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>948.3042314201945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.5116522766643</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1222.300479791228</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1222.300479791228</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1222.300479791228</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1222.300479791228</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3872.174920417421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3872.174920417421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3777.748724048913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4382.384669597912</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4092.967499560951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4092.967499560951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3872.174920417421</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3533.836934303321</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>308.1251096272034</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503162</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>16.53504133818444</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>65.85065954277755</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>120.0467099505167</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>97.43287349936816</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>65.37497932436548</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.5690198583201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>43.86969556065114</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.82350024843876</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>185.2331835502363</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25131,19 +25131,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>108.8451328388536</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>98.75080951313051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>76.80544144507661</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.66228060317417</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>55.13353861338895</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>56.36903246710719</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>830125.3243240301</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.3243240302</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516046</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="E2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="G2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196781</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="I2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="J2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="M2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,13 +26435,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481755</v>
+        <v>-252062.4514481753</v>
       </c>
       <c r="C6" t="n">
+        <v>337905.427766369</v>
+      </c>
+      <c r="D6" t="n">
         <v>337905.4277663692</v>
       </c>
-      <c r="D6" t="n">
-        <v>337905.4277663693</v>
-      </c>
       <c r="E6" t="n">
-        <v>-79458.77135823721</v>
+        <v>-80433.36261795908</v>
       </c>
       <c r="F6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589375</v>
       </c>
       <c r="G6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="H6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589375</v>
       </c>
       <c r="I6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.6738589372</v>
       </c>
       <c r="J6" t="n">
-        <v>269278.0459260659</v>
+        <v>268303.454666345</v>
       </c>
       <c r="K6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589373</v>
       </c>
       <c r="L6" t="n">
-        <v>445701.2651186592</v>
+        <v>444726.673858937</v>
       </c>
       <c r="M6" t="n">
-        <v>310900.2498848218</v>
+        <v>309925.6586251001</v>
       </c>
       <c r="N6" t="n">
-        <v>445701.2651186588</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="O6" t="n">
-        <v>445701.2651186589</v>
+        <v>444726.6738589376</v>
       </c>
       <c r="P6" t="n">
-        <v>445701.265118659</v>
+        <v>444726.6738589376</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>116.7497573142984</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>56.29943755183251</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>89.58101666090511</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>119.0630937653842</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>24.91423433189533</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>22.53955250278446</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>126.3969289921382</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>56.69292621882477</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.1240669347174</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.496509910249074</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>202.6983327287248</v>
       </c>
       <c r="X10" t="n">
-        <v>17.36734479495652</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33116,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>515.2185245587281</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2394720.040439928</v>
+        <v>2399659.303288959</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>35.18155893056283</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>55.84003136202615</v>
+        <v>70.11928264603833</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>10.29782397666626</v>
       </c>
       <c r="G5" t="n">
-        <v>388.8699356888997</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>40.91287326691273</v>
+        <v>88.70695541093664</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>6.74548282293786</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>383.7414287458045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.82466560786619</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>45.37449962547114</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.7339938093172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>115.2165502573726</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>154.7047698244598</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>211.459391016894</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>181.839959828386</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.7791350527408</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>25.37433807241048</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151915</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>215.7053919670787</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>177.6778654977374</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>101.142654714013</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>188.1607094910711</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4312,19 +4312,19 @@
         <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.217875522719</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>918.4296229244749</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>507.4437181348673</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>89.47991003305418</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>89.47991003305418</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>279.3468541648867</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>279.3468541648867</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C5" t="n">
-        <v>1139.146815977588</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="D5" t="n">
-        <v>780.8811173708375</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="E5" t="n">
-        <v>780.8811173708375</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="F5" t="n">
-        <v>773.935616621634</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D7" t="n">
-        <v>288.8387344486664</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9256408662733</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9256408662733</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674651</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674651</v>
+        <v>2459.129294849817</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4962,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.955373861002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>584.4452354807079</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404653</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404653</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1163.954803866944</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345004</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617345004</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.0937003109476</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V16" t="n">
-        <v>853.6001774198821</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W16" t="n">
-        <v>564.1830073829216</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>564.1830073829216</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.1830073829216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,46 +6153,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141522</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X25" t="n">
-        <v>836.769640042142</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
@@ -6226,13 +6226,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181149</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>272.9643753902079</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>122.8477359778722</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6396,40 +6396,40 @@
         <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609623</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550755</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181149</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181149</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181149</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,13 +6542,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6624,19 +6624,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6779,13 +6779,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1064.759190940159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>836.769640042142</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7104,13 +7104,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1396.75197286698</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,16 +7171,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7663,34 +7663,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,13 +7824,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1382.222354598086</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395179</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298482</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>206.7631436983569</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>65.85065954277755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>106.3310108010167</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>97.43287349936816</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>40.67825230693404</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>43.86969556065114</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>121.0596245741587</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338579</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>10.00426342195843</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>108.8451328388536</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>124.5670006750241</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>33.38685156731813</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830125.3243240298</v>
+        <v>830125.32432403</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240301</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830125.32432403</v>
+        <v>830125.3243240298</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516046</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196781</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="I2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196781</v>
-      </c>
       <c r="O2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.354388470848789e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26435,31 +26435,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252062.4514481753</v>
+        <v>-252062.4514481754</v>
       </c>
       <c r="C6" t="n">
         <v>337905.427766369</v>
       </c>
       <c r="D6" t="n">
-        <v>337905.4277663692</v>
+        <v>337905.427766369</v>
       </c>
       <c r="E6" t="n">
-        <v>-80433.36261795908</v>
+        <v>-79556.23048420936</v>
       </c>
       <c r="F6" t="n">
-        <v>444726.6738589375</v>
+        <v>445603.8059926869</v>
       </c>
       <c r="G6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="H6" t="n">
-        <v>444726.6738589375</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="I6" t="n">
-        <v>444726.6738589372</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="J6" t="n">
-        <v>268303.454666345</v>
+        <v>269180.5868000939</v>
       </c>
       <c r="K6" t="n">
-        <v>444726.6738589373</v>
+        <v>445603.8059926866</v>
       </c>
       <c r="L6" t="n">
-        <v>444726.673858937</v>
+        <v>445603.8059926871</v>
       </c>
       <c r="M6" t="n">
-        <v>309925.6586251001</v>
+        <v>310802.7907588496</v>
       </c>
       <c r="N6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926867</v>
       </c>
       <c r="O6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926868</v>
       </c>
       <c r="P6" t="n">
-        <v>444726.6738589376</v>
+        <v>445603.8059926869</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,16 +26795,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26822,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>116.7497573142984</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>89.58101666090511</v>
+        <v>75.30176537689292</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>396.5782217650452</v>
       </c>
       <c r="G5" t="n">
-        <v>24.91423433189533</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>126.3969289921382</v>
+        <v>78.60284684811427</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>321.0067756471971</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.496509910249074</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946059</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6983327287248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,31 +32876,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055998</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970350042</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
